--- a/数据整理/stocks/A股/上证主板/600549-厦门钨业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600549-厦门钨业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.49</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009438</t>
+          <t>002137</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合C</t>
+          <t>诺安利鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.01</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>510170</t>
+          <t>160620</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国联安上证大宗商品股票ETF</t>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160620</t>
+          <t>510170</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
+          <t>国联安上证大宗商品股票ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161715</t>
+          <t>009438</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商中证大宗商品股票指数（LOF）</t>
+          <t>信达澳银科技创新一年定期开放混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002137</t>
+          <t>161715</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺安利鑫灵活配置混合</t>
+          <t>招商中证大宗商品股票指数（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.14</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004205</t>
+          <t>010611</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方支柱产业灵活配置混合</t>
+          <t>万家战略发展产业混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.76</t>
+          <t>32.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1822</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005117</t>
+          <t>010612</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金信价值精选灵活配置混合A</t>
+          <t>万家战略发展产业混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>76.43</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3776</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005118</t>
+          <t>008180</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金信价值精选灵活配置混合C</t>
+          <t>同泰慧利混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>76.43</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010611</t>
+          <t>004205</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家战略发展产业混合A</t>
+          <t>东方支柱产业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>56.03</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010612</t>
+          <t>510170</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家战略发展产业混合C</t>
+          <t>国联安上证大宗商品股票ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>56.03</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>96.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>510170</t>
+          <t>008050</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国联安上证大宗商品股票ETF</t>
+          <t>同泰慧择混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>96.15</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001614</t>
+          <t>160620</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方区域发展混合</t>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>82.71</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160620</t>
+          <t>005357</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
+          <t>富国国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005357</t>
+          <t>008093</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国国企改革灵活配置混合</t>
+          <t>同泰慧选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>84.68</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008050</t>
+          <t>005117</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>同泰慧择混合A</t>
+          <t>金信价值精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>95.06</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -986,25 +1166,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008051</t>
+          <t>008094</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>同泰慧择混合C</t>
+          <t>同泰慧选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>95.06</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008093</t>
+          <t>008181</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>同泰慧选混合A</t>
+          <t>同泰慧利混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008094</t>
+          <t>008051</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>同泰慧选混合C</t>
+          <t>同泰慧择混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008180</t>
+          <t>001614</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>同泰慧利混合A</t>
+          <t>东方区域发展混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008181</t>
+          <t>005118</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>同泰慧利混合C</t>
+          <t>金信价值精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600549-厦门钨业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600549-厦门钨业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8656</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3046</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600549-厦门钨业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600549-厦门钨业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1942,4 +1943,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9551</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8253</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4732</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4261</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512350</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴业中证福建50ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600549-厦门钨业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600549-厦门钨业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2531,4 +2532,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600549-厦门钨业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600549-厦门钨业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2540,7 +2541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2551,17 +2552,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2571,14 +2592,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.09</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0407</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2587,14 +2630,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.63</v>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5417</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2603,14 +2668,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.87</v>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2619,13 +2706,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600549-厦门钨业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600549-厦门钨业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2901,7 +2902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2912,17 +2913,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2932,14 +2953,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.11</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1175</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2948,14 +2991,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.09</v>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4877</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2964,14 +3029,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.63</v>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2980,14 +3067,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.87</v>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2996,13 +3105,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014331</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF联接A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014332</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF联接C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600549-厦门钨业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600549-厦门钨业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3224,7 +3225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3235,17 +3236,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3255,14 +3276,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.96</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2864</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3271,14 +3314,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.11</v>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8802</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3287,14 +3352,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.09</v>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7785</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3303,14 +3390,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.63</v>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5850</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3319,14 +3428,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.87</v>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5097</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -3335,13 +3466,981 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5088</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4969</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4537</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3048</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3021</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2871</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>51.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>51.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600549-厦门钨业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600549-厦门钨业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D2" t="n">
-        <v>7.44</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>1.96</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>2.11</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>3.09</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>1.63</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>1.87</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -600,6 +617,2568 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1680</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8567</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7922</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7652</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014420</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5316</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4895</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4839</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4685</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4501</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4134</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>45.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4044</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3199</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2851</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2469</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1896</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011793</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014421</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014410</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银聚福混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015593</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014411</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015507</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012808</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015508</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011361</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>33.21</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014692</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>68.41</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014691</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>68.41</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银聚福混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011362</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>33.21</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1681,7 +4260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2003,7 +4582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2356,594 +4935,6 @@
       </c>
       <c r="H9" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001556</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>52.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9551</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>516150</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实中证稀土产业ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8253</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>516780</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证稀土产业ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.95</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>98.41</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4732</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001557</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>天弘中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>23.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4261</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011630</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>西藏东财中证有色金属指数增强A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1169</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011631</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>西藏东财中证有色金属指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0688</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008997</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>同泰竞争优势混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.89</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0587</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004205</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方支柱产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.52</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0521</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005933</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.35</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0467</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008998</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>同泰竞争优势混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.89</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0424</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006729</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>万家中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006730</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>万家中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005934</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.35</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>512350</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>兴业中证福建50ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>96.36</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3008,36 +4999,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>516780</t>
+          <t>001556</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证稀土产业ETF</t>
+          <t>天弘中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.81</t>
+          <t>52.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8656</t>
+          <t>0.9551</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3046,32 +5037,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001556</t>
+          <t>516150</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强A</t>
+          <t>嘉实中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.69</t>
+          <t>20.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>99.52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3046</t>
+          <t>0.8253</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -3084,36 +5075,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>516150</t>
+          <t>516780</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实中证稀土产业ETF</t>
+          <t>华泰柏瑞中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>3.96</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.08</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1901</t>
+          <t>0.4732</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3132,26 +5123,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>23.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1094</t>
+          <t>0.4261</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3160,36 +5151,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004205</t>
+          <t>011630</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东方支柱产业灵活配置混合</t>
+          <t>西藏东财中证有色金属指数增强A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.18</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0582</t>
+          <t>0.1169</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3198,32 +5189,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008180</t>
+          <t>011631</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>同泰慧利混合A</t>
+          <t>西藏东财中证有色金属指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.36</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0450</t>
+          <t>0.0688</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -3236,36 +5227,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004244</t>
+          <t>008997</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方周期优选灵活配置混合</t>
+          <t>同泰竞争优势混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>78.95</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0210</t>
+          <t>0.0587</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -3274,32 +5265,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008093</t>
+          <t>004205</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>同泰慧选混合A</t>
+          <t>东方支柱产业灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>88.52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0177</t>
+          <t>0.0521</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -3312,36 +5303,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008094</t>
+          <t>005933</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>同泰慧选混合C</t>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>89.35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0049</t>
+          <t>0.0467</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -3350,36 +5341,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006729</t>
+          <t>008998</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>万家中证500指数增强A</t>
+          <t>同泰竞争优势混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.0424</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -3388,36 +5379,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008181</t>
+          <t>006729</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>同泰慧利混合C</t>
+          <t>万家中证500指数增强A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.36</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -3426,36 +5417,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001849</t>
+          <t>006730</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>前海开源强势共识100强等权重股票</t>
+          <t>万家中证500指数增强C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0059</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -3464,36 +5455,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001614</t>
+          <t>005934</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东方区域发展混合</t>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>82.28</t>
+          <t>89.35</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -3502,32 +5493,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006730</t>
+          <t>512350</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>万家中证500指数增强C</t>
+          <t>兴业中证福建50ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>96.36</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -3540,6 +5531,594 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8656</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3046</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4165,7 +6744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600549-厦门钨业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600549-厦门钨业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>10.63</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D3" t="n">
-        <v>7.44</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>1.96</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>2.11</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>3.09</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>1.63</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>1.87</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -616,7 +633,1523 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9519</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4068</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3597</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159667</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证机床ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014410</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银聚福混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159663</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证机床ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014411</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011361</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银聚福混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011362</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3178,7 +4711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4260,7 +5793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4582,7 +6115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4935,594 +6468,6 @@
       </c>
       <c r="H9" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001556</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>52.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9551</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>516150</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实中证稀土产业ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8253</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>516780</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证稀土产业ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.95</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>98.41</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4732</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001557</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>天弘中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>23.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4261</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011630</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>西藏东财中证有色金属指数增强A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1169</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011631</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>西藏东财中证有色金属指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0688</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008997</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>同泰竞争优势混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.89</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0587</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004205</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方支柱产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.52</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0521</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005933</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.35</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0467</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008998</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>同泰竞争优势混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.89</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0424</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006729</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>万家中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006730</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>万家中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005934</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.35</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>512350</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>兴业中证福建50ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>96.36</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5587,36 +6532,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>516780</t>
+          <t>001556</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证稀土产业ETF</t>
+          <t>天弘中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.81</t>
+          <t>52.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8656</t>
+          <t>0.9551</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -5625,32 +6570,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001556</t>
+          <t>516150</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强A</t>
+          <t>嘉实中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.69</t>
+          <t>20.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>99.52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3046</t>
+          <t>0.8253</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -5663,36 +6608,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>516150</t>
+          <t>516780</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实中证稀土产业ETF</t>
+          <t>华泰柏瑞中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>3.96</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.08</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1901</t>
+          <t>0.4732</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -5711,26 +6656,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>23.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1094</t>
+          <t>0.4261</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -5739,36 +6684,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004205</t>
+          <t>011630</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东方支柱产业灵活配置混合</t>
+          <t>西藏东财中证有色金属指数增强A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.18</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0582</t>
+          <t>0.1169</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -5777,32 +6722,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008180</t>
+          <t>011631</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>同泰慧利混合A</t>
+          <t>西藏东财中证有色金属指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.36</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0450</t>
+          <t>0.0688</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -5815,36 +6760,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004244</t>
+          <t>008997</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方周期优选灵活配置混合</t>
+          <t>同泰竞争优势混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>78.95</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0210</t>
+          <t>0.0587</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -5853,32 +6798,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008093</t>
+          <t>004205</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>同泰慧选混合A</t>
+          <t>东方支柱产业灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>88.52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0177</t>
+          <t>0.0521</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -5891,36 +6836,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008094</t>
+          <t>005933</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>同泰慧选混合C</t>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>89.35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0049</t>
+          <t>0.0467</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -5929,36 +6874,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006729</t>
+          <t>008998</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>万家中证500指数增强A</t>
+          <t>同泰竞争优势混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.0424</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -5967,36 +6912,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008181</t>
+          <t>006729</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>同泰慧利混合C</t>
+          <t>万家中证500指数增强A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.36</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -6005,36 +6950,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001849</t>
+          <t>006730</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>前海开源强势共识100强等权重股票</t>
+          <t>万家中证500指数增强C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0059</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -6043,36 +6988,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001614</t>
+          <t>005934</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东方区域发展混合</t>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>82.28</t>
+          <t>89.35</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -6081,32 +7026,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006730</t>
+          <t>512350</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>万家中证500指数增强C</t>
+          <t>兴业中证福建50ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>96.36</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -6119,6 +7064,594 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8656</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3046</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6742,288 +8275,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009437</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>信达澳银科技创新一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.84</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1615</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002137</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安利鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0562</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160620</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0324</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>510170</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国联安上证大宗商品股票ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>97.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0307</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009438</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>信达澳银科技创新一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0258</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161715</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商中证大宗商品股票指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>